--- a/0725潍坊诚成项目表.xlsx
+++ b/0725潍坊诚成项目表.xlsx
@@ -45,7 +45,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">'0724'!$B$1:$P$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">'0725'!$B$1:$P$1</definedName>
   </definedNames>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -10835,10 +10835,6 @@
     <phoneticPr fontId="45" type="noConversion"/>
   </si>
   <si>
-    <t>兼安真未</t>
-    <phoneticPr fontId="30"/>
-  </si>
-  <si>
     <t>无</t>
     <phoneticPr fontId="30"/>
   </si>
@@ -10883,6 +10879,10 @@
       </rPr>
       <t>提交</t>
     </r>
+    <phoneticPr fontId="30"/>
+  </si>
+  <si>
+    <t>兼安真未00</t>
     <phoneticPr fontId="30"/>
   </si>
 </sst>
@@ -36235,7 +36235,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:P32"/>
+      <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -37340,7 +37340,7 @@
         <v>0.5</v>
       </c>
       <c r="P10" s="107" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="Q10" s="125"/>
       <c r="R10" s="17"/>
@@ -38480,7 +38480,7 @@
         <v>1734</v>
       </c>
       <c r="D29" s="144" t="s">
-        <v>1735</v>
+        <v>1740</v>
       </c>
       <c r="E29" s="88" t="s">
         <v>1719</v>
@@ -38516,7 +38516,7 @@
         <v>2</v>
       </c>
       <c r="P29" s="41" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="IA29" s="94"/>
       <c r="IB29" s="94"/>
@@ -38535,10 +38535,10 @@
         <v>7</v>
       </c>
       <c r="C30" s="87" t="s">
+        <v>1736</v>
+      </c>
+      <c r="D30" s="342" t="s">
         <v>1737</v>
-      </c>
-      <c r="D30" s="342" t="s">
-        <v>1738</v>
       </c>
       <c r="E30" s="88" t="s">
         <v>1719</v>
@@ -38565,7 +38565,7 @@
         <v>43678</v>
       </c>
       <c r="M30" s="88" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="N30" s="93" t="s">
         <v>35</v>
@@ -38574,7 +38574,7 @@
         <v>5</v>
       </c>
       <c r="P30" s="41" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="IA30" s="94"/>
       <c r="IB30" s="94"/>
